--- a/excel/flightpicking.xlsx
+++ b/excel/flightpicking.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken/Documents/MyProgram/Web/LD/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="接送机模板" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">接送机模板!$A$1:$S$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'接送机模板（大）'!$A$1:$S$26</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="62">
   <si>
     <t>航班号：</t>
   </si>
@@ -284,13 +279,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yaochenkun</t>
+    <t>15122707970</t>
+  </si>
+  <si>
+    <t>YaoChenKun</t>
+  </si>
+  <si>
+    <t>CA13441</t>
+  </si>
+  <si>
+    <t>S123451</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>13980823993</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1162,146 +1185,128 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1321,48 +1326,6 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1374,16 +1337,107 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1611,6 +1665,44 @@
         <a:xfrm>
           <a:off x="12101969" y="313765"/>
           <a:ext cx="1210619" cy="246055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>191237</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>246055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="Landing East logo horizontal2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534762" y="314325"/>
+          <a:ext cx="1218463" cy="246055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2142,68 +2234,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="4.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="3.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="18" width="4.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="5.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.83203125" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="23.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="13.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="3.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="23.625" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="2" width="4.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="5.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="23.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="13.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="3.625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="23.625" collapsed="true"/>
+    <col min="15" max="18" customWidth="true" style="2" width="4.625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="2" width="5.625" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:18" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="107" t="s">
+    <row r="1" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:18" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
-      <c r="K2" s="107" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="K2" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-    </row>
-    <row r="3" spans="2:18" s="38" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="110"/>
+    </row>
+    <row r="3" spans="2:18" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="F3" s="34" t="s">
+        <v>60</v>
+      </c>
       <c r="G3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="I3" s="39" t="s">
         <v>23</v>
       </c>
@@ -2221,324 +2315,346 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="113"/>
+      <c r="C4" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>53</v>
+      </c>
       <c r="E4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="102"/>
+        <v>38</v>
+      </c>
+      <c r="F4" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="99"/>
       <c r="J4" s="4"/>
       <c r="K4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="98"/>
       <c r="N4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="102"/>
-    </row>
-    <row r="5" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="99"/>
+    </row>
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="116"/>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="102"/>
+      <c r="F5" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="99"/>
       <c r="K5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="98"/>
       <c r="N5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="102"/>
-    </row>
-    <row r="6" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="99"/>
+    </row>
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="99"/>
+      <c r="C6" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="102"/>
+      <c r="F6" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="4"/>
       <c r="K6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="98"/>
-      <c r="M6" s="99"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="102"/>
-    </row>
-    <row r="7" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="99"/>
+    </row>
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
+      <c r="C7" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="112"/>
+      <c r="F7" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="107"/>
       <c r="J7" s="4"/>
       <c r="K7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="102"/>
-    </row>
-    <row r="8" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="99"/>
+    </row>
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="100"/>
-      <c r="M8" s="101"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="117"/>
       <c r="N8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="112"/>
-    </row>
-    <row r="9" spans="2:18" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="107"/>
+    </row>
+    <row r="9" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="2:18" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="107" t="s">
+    <row r="10" spans="2:18" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-      <c r="K10" s="107" t="s">
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
+      <c r="K10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="109"/>
-    </row>
-    <row r="11" spans="2:18" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="110"/>
+    </row>
+    <row r="11" spans="2:18" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="35"/>
       <c r="C11" s="36"/>
       <c r="D11" s="34"/>
       <c r="E11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
       <c r="K11" s="35"/>
       <c r="L11" s="36"/>
       <c r="M11" s="34"/>
       <c r="N11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="111"/>
-    </row>
-    <row r="12" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="112"/>
+    </row>
+    <row r="12" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="103"/>
       <c r="K12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98"/>
       <c r="N12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="104"/>
-    </row>
-    <row r="13" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="103"/>
+    </row>
+    <row r="13" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="103"/>
       <c r="K13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="98"/>
-      <c r="M13" s="99"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="98"/>
       <c r="N13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="104"/>
-    </row>
-    <row r="14" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
+    </row>
+    <row r="14" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="103"/>
       <c r="K14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="98"/>
-      <c r="M14" s="99"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="98"/>
       <c r="N14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="104"/>
-    </row>
-    <row r="15" spans="2:18" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="103"/>
+    </row>
+    <row r="15" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="106"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
       <c r="K15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="102"/>
-    </row>
-    <row r="16" spans="2:18" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="99"/>
+    </row>
+    <row r="16" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="117"/>
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="106"/>
-    </row>
-    <row r="17" spans="2:18" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="105"/>
+    </row>
+    <row r="17" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:18" s="41" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="114" t="s">
+    <row r="18" spans="2:18" s="41" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="K18" s="114" t="s">
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="96"/>
+      <c r="K18" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="116"/>
-    </row>
-    <row r="19" spans="2:18" s="8" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="94"/>
+    </row>
+    <row r="19" spans="2:18" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -2564,7 +2680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
@@ -2575,10 +2691,10 @@
       <c r="E20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="96"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="101"/>
       <c r="K20" s="16" t="s">
         <v>24</v>
       </c>
@@ -2589,102 +2705,102 @@
       <c r="N20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="96"/>
-    </row>
-    <row r="21" spans="2:18" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="101"/>
+    </row>
+    <row r="21" spans="2:18" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="96"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="101"/>
       <c r="K21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="94"/>
-      <c r="M21" s="95"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="118"/>
       <c r="N21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="96"/>
-    </row>
-    <row r="22" spans="2:18" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="101"/>
+    </row>
+    <row r="22" spans="2:18" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="118"/>
       <c r="E22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="96"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
       <c r="K22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="94"/>
-      <c r="M22" s="95"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="118"/>
       <c r="N22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="96"/>
-    </row>
-    <row r="23" spans="2:18" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
+    </row>
+    <row r="23" spans="2:18" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="120"/>
       <c r="E23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="97"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="121"/>
       <c r="K23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="96"/>
-    </row>
-    <row r="24" spans="2:18" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="101"/>
+    </row>
+    <row r="24" spans="2:18" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="92"/>
-      <c r="M24" s="93"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="120"/>
       <c r="N24" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="97"/>
-    </row>
-    <row r="25" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="121"/>
+    </row>
+    <row r="25" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:18" x14ac:dyDescent="0.15">
       <c r="I30" s="2" t="s">
         <v>33</v>
@@ -2692,6 +2808,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="K18:R18"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="L6:M6"/>
@@ -2708,47 +2865,6 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="O12:R12"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="F23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2759,7 +2875,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:R31"/>
@@ -2768,49 +2884,49 @@
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="4.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="3.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="15" max="18" width="4.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="5.6640625" style="42" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.83203125" style="42" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="42" width="5.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="42" width="23.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="42" width="13.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="42" width="3.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="42" width="23.625" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="42" width="4.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="42" width="5.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="42" width="23.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="42" width="13.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="42" width="3.625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="42" width="23.625" collapsed="true"/>
+    <col min="15" max="18" customWidth="true" style="42" width="4.625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="42" width="5.625" collapsed="true"/>
+    <col min="20" max="16384" style="42" width="8.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:18" s="43" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="119" t="s">
+    <row r="1" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:18" s="43" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="121"/>
-    </row>
-    <row r="3" spans="2:18" s="51" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="115"/>
+    </row>
+    <row r="3" spans="2:18" s="51" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="74"/>
       <c r="C3" s="75"/>
       <c r="D3" s="76"/>
@@ -2837,113 +2953,113 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="44" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:18" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="124"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="159"/>
       <c r="J4" s="50"/>
       <c r="K4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="125"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="153"/>
       <c r="N4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="124"/>
-    </row>
-    <row r="5" spans="2:18" s="44" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="159"/>
+    </row>
+    <row r="5" spans="2:18" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="124"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="159"/>
       <c r="J5" s="51"/>
       <c r="K5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="122"/>
-      <c r="M5" s="125"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="153"/>
       <c r="N5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="124"/>
-    </row>
-    <row r="6" spans="2:18" s="44" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O5" s="152"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="159"/>
+    </row>
+    <row r="6" spans="2:18" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="125"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="124"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="159"/>
       <c r="J6" s="50"/>
       <c r="K6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="122"/>
-      <c r="M6" s="125"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="153"/>
       <c r="N6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="124"/>
-    </row>
-    <row r="7" spans="2:18" s="44" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="159"/>
+    </row>
+    <row r="7" spans="2:18" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="128"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="162"/>
       <c r="J7" s="50"/>
       <c r="K7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="124"/>
-    </row>
-    <row r="8" spans="2:18" s="44" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="159"/>
+    </row>
+    <row r="8" spans="2:18" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
       <c r="D8" s="51"/>
@@ -2956,198 +3072,198 @@
       <c r="K8" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="126"/>
-      <c r="M8" s="127"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="161"/>
       <c r="N8" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="128"/>
-    </row>
-    <row r="9" spans="2:18" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="162"/>
+    </row>
+    <row r="9" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="119" t="s">
+    <row r="10" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="115"/>
       <c r="J10" s="55"/>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="121"/>
-    </row>
-    <row r="11" spans="2:18" s="66" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="115"/>
+    </row>
+    <row r="11" spans="2:18" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="80"/>
       <c r="C11" s="81"/>
       <c r="D11" s="76"/>
       <c r="E11" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
       <c r="K11" s="80"/>
       <c r="L11" s="81"/>
       <c r="M11" s="76"/>
       <c r="N11" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="130"/>
-    </row>
-    <row r="12" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="157"/>
+    </row>
+    <row r="12" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="125"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="132"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
       <c r="J12" s="66"/>
       <c r="K12" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="122"/>
-      <c r="M12" s="125"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="153"/>
       <c r="N12" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="132"/>
-    </row>
-    <row r="13" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="155"/>
+    </row>
+    <row r="13" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="125"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
       <c r="J13" s="66"/>
       <c r="K13" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="122"/>
-      <c r="M13" s="125"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="153"/>
       <c r="N13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="132"/>
-    </row>
-    <row r="14" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="154"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="155"/>
+    </row>
+    <row r="14" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="125"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="153"/>
       <c r="E14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
       <c r="J14" s="66"/>
       <c r="K14" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="122"/>
-      <c r="M14" s="125"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="153"/>
       <c r="N14" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="132"/>
-    </row>
-    <row r="15" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="151" t="s">
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="155"/>
+    </row>
+    <row r="15" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="153" t="s">
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="139"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="141"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="135"/>
       <c r="J15" s="73"/>
       <c r="K15" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="160"/>
-    </row>
-    <row r="16" spans="2:18" s="72" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="152"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="144"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="140"/>
+    </row>
+    <row r="16" spans="2:18" s="72" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="126"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
       <c r="J16" s="70"/>
-      <c r="K16" s="151" t="s">
+      <c r="K16" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="155"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="161" t="s">
+      <c r="L16" s="129"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="139"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="141"/>
-    </row>
-    <row r="17" spans="2:18" s="72" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="133"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="135"/>
+    </row>
+    <row r="17" spans="2:18" s="72" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
@@ -3157,16 +3273,16 @@
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="142"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="144"/>
-    </row>
-    <row r="18" spans="2:18" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="126"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="138"/>
+    </row>
+    <row r="18" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="69"/>
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
@@ -3185,30 +3301,30 @@
       <c r="Q18" s="66"/>
       <c r="R18" s="66"/>
     </row>
-    <row r="19" spans="2:18" s="46" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="133" t="s">
+    <row r="19" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="135"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="148"/>
       <c r="J19" s="56"/>
-      <c r="K19" s="136" t="s">
+      <c r="K19" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="138"/>
-    </row>
-    <row r="20" spans="2:18" s="69" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="150"/>
+      <c r="R19" s="151"/>
+    </row>
+    <row r="20" spans="2:18" s="69" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="82"/>
       <c r="C20" s="83"/>
       <c r="D20" s="84"/>
@@ -3235,7 +3351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="46" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="57" t="s">
         <v>24</v>
       </c>
@@ -3246,10 +3362,10 @@
       <c r="E21" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="145"/>
       <c r="K21" s="57" t="s">
         <v>24</v>
       </c>
@@ -3260,102 +3376,102 @@
       <c r="N21" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="145"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="145"/>
-      <c r="R21" s="146"/>
-    </row>
-    <row r="22" spans="2:18" s="46" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O21" s="143"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="145"/>
+    </row>
+    <row r="22" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="147"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="146"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="145"/>
       <c r="K22" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="145"/>
-      <c r="M22" s="147"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="144"/>
       <c r="N22" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="146"/>
-    </row>
-    <row r="23" spans="2:18" s="46" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="145"/>
+    </row>
+    <row r="23" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="147"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
       <c r="E23" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="146"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="145"/>
       <c r="K23" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="145"/>
-      <c r="M23" s="147"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="144"/>
       <c r="N23" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="146"/>
-    </row>
-    <row r="24" spans="2:18" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="145"/>
+    </row>
+    <row r="24" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="123"/>
       <c r="E24" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="150"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="124"/>
       <c r="K24" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="146"/>
-    </row>
-    <row r="25" spans="2:18" s="46" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="143"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="145"/>
+    </row>
+    <row r="25" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K25" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="148"/>
-      <c r="M25" s="149"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
       <c r="N25" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="150"/>
-    </row>
-    <row r="26" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="124"/>
+    </row>
+    <row r="26" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="I31" s="42" t="s">
         <v>33</v>
@@ -3363,6 +3479,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="O16:R17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O22:R22"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="O25:R25"/>
     <mergeCell ref="B15:B16"/>
@@ -3379,51 +3540,6 @@
     <mergeCell ref="O23:R23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="F24:I24"/>
-    <mergeCell ref="L24:R24"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="O16:R17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/flightpicking.xlsx
+++ b/excel/flightpicking.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="62">
   <si>
     <t>航班号：</t>
   </si>
@@ -279,34 +279,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15122707970</t>
-  </si>
-  <si>
     <t>YaoChenKun</t>
   </si>
   <si>
-    <t>CA13441</t>
-  </si>
-  <si>
-    <t>S123451</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
-    <t>13980823993</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>CA1344</t>
+  </si>
+  <si>
+    <t>S12345</t>
+  </si>
+  <si>
+    <t>12345678910</t>
+  </si>
+  <si>
     <t>00:00:00</t>
   </si>
   <si>
     <t>05</t>
   </si>
   <si>
-    <t>27</t>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -1185,6 +1185,81 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,79 +1275,82 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1308,24 +1386,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1337,66 +1397,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2240,7 +2240,7 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2273,31 +2273,27 @@
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="115"/>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="110"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="109"/>
     </row>
     <row r="3" spans="2:18" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
-        <v>60</v>
-      </c>
+      <c r="F3" s="34"/>
       <c r="G3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>61</v>
-      </c>
+      <c r="H3" s="37"/>
       <c r="I3" s="39" t="s">
         <v>23</v>
       </c>
@@ -2306,11 +2302,15 @@
       <c r="L3" s="33"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="O3" s="34" t="s">
+        <v>60</v>
+      </c>
       <c r="P3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="37"/>
+      <c r="Q3" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="R3" s="39" t="s">
         <v>23</v>
       </c>
@@ -2319,128 +2319,128 @@
       <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="97" t="s">
-        <v>53</v>
-      </c>
+      <c r="C4" s="98"/>
       <c r="D4" s="116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="99"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="102" t="s">
+        <v>56</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98"/>
+      <c r="L4" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="99"/>
       <c r="N4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="99"/>
+      <c r="O4" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="102"/>
     </row>
     <row r="5" spans="2:18" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="97" t="s">
-        <v>59</v>
-      </c>
+      <c r="C5" s="98"/>
       <c r="D5" s="116"/>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="99"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="102"/>
       <c r="K5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="97"/>
-      <c r="M5" s="98"/>
+      <c r="L5" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="99"/>
       <c r="N5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="99"/>
+      <c r="O5" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="102"/>
     </row>
     <row r="6" spans="2:18" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="98" t="s">
-        <v>56</v>
+      <c r="C6" s="98"/>
+      <c r="D6" s="99" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="99"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="4"/>
       <c r="K6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="98"/>
+      <c r="L6" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="99"/>
       <c r="N6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="99"/>
+      <c r="O6" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="102"/>
     </row>
     <row r="7" spans="2:18" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>58</v>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="4"/>
       <c r="K7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="99"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="102"/>
     </row>
     <row r="8" spans="2:18" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -2449,15 +2449,19 @@
       <c r="K8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="106"/>
-      <c r="M8" s="117"/>
+      <c r="L8" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="101"/>
       <c r="N8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="107"/>
+      <c r="O8" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="112"/>
     </row>
     <row r="9" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
@@ -2467,26 +2471,26 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:18" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
-      <c r="K10" s="108" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
+      <c r="K10" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="110"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="109"/>
     </row>
     <row r="11" spans="2:18" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="35"/>
@@ -2495,136 +2499,136 @@
       <c r="E11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
       <c r="K11" s="35"/>
       <c r="L11" s="36"/>
       <c r="M11" s="34"/>
       <c r="N11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="112"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="111"/>
     </row>
     <row r="12" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
       <c r="E12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
       <c r="K12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
       <c r="N12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="104"/>
     </row>
     <row r="13" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
       <c r="K13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="97"/>
-      <c r="M13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="99"/>
       <c r="N13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="104"/>
     </row>
     <row r="14" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
       <c r="K14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="97"/>
-      <c r="M14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
       <c r="N14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="104"/>
     </row>
     <row r="15" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="117"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="106"/>
       <c r="K15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="99"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="102"/>
     </row>
     <row r="16" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="106"/>
-      <c r="M16" s="117"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="101"/>
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="106"/>
     </row>
     <row r="17" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
@@ -2633,26 +2637,26 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:18" s="41" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="96"/>
-      <c r="K18" s="92" t="s">
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="K18" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="94"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="119"/>
     </row>
     <row r="19" spans="2:18" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
@@ -2691,10 +2695,10 @@
       <c r="E20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="101"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="96"/>
       <c r="K20" s="16" t="s">
         <v>24</v>
       </c>
@@ -2705,100 +2709,100 @@
       <c r="N20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="101"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="96"/>
     </row>
     <row r="21" spans="2:18" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="118"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="101"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="96"/>
       <c r="K21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="100"/>
-      <c r="M21" s="118"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="95"/>
       <c r="N21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="101"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="96"/>
     </row>
     <row r="22" spans="2:18" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="118"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="96"/>
       <c r="K22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="100"/>
-      <c r="M22" s="118"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="95"/>
       <c r="N22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="101"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="96"/>
     </row>
     <row r="23" spans="2:18" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
       <c r="E23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="121"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="97"/>
       <c r="K23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="101"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="96"/>
     </row>
     <row r="24" spans="2:18" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="119"/>
-      <c r="M24" s="120"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="93"/>
       <c r="N24" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="121"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="97"/>
     </row>
     <row r="25" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:18" x14ac:dyDescent="0.15">
@@ -2808,31 +2812,22 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O12:R12"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="B10:I10"/>
@@ -2849,22 +2844,31 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="F23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2957,107 +2961,107 @@
       <c r="B4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="158"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="159"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="124"/>
       <c r="J4" s="50"/>
       <c r="K4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="152"/>
-      <c r="M4" s="153"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="125"/>
       <c r="N4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="159"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="124"/>
     </row>
     <row r="5" spans="2:18" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="158"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="159"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="124"/>
       <c r="J5" s="51"/>
       <c r="K5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="152"/>
-      <c r="M5" s="153"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="125"/>
       <c r="N5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="159"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="124"/>
     </row>
     <row r="6" spans="2:18" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="153"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="159"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="124"/>
       <c r="J6" s="50"/>
       <c r="K6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="152"/>
-      <c r="M6" s="153"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="159"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="124"/>
     </row>
     <row r="7" spans="2:18" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="162"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="128"/>
       <c r="J7" s="50"/>
       <c r="K7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="159"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="124"/>
     </row>
     <row r="8" spans="2:18" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="50"/>
@@ -3072,15 +3076,15 @@
       <c r="K8" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="160"/>
-      <c r="M8" s="161"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="127"/>
       <c r="N8" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="162"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="128"/>
     </row>
     <row r="9" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="44"/>
@@ -3119,149 +3123,149 @@
       <c r="E11" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
       <c r="K11" s="80"/>
       <c r="L11" s="81"/>
       <c r="M11" s="76"/>
       <c r="N11" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="157"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="130"/>
     </row>
     <row r="12" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="125"/>
       <c r="E12" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="155"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
       <c r="J12" s="66"/>
       <c r="K12" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="152"/>
-      <c r="M12" s="153"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="125"/>
       <c r="N12" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="155"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="132"/>
     </row>
     <row r="13" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="155"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="66"/>
       <c r="K13" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="152"/>
-      <c r="M13" s="153"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="125"/>
       <c r="N13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="155"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="132"/>
     </row>
     <row r="14" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="155"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="66"/>
       <c r="K14" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="152"/>
-      <c r="M14" s="153"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="125"/>
       <c r="N14" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="155"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="132"/>
     </row>
     <row r="15" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="127" t="s">
+      <c r="C15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="133"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="135"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="141"/>
       <c r="J15" s="73"/>
       <c r="K15" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="140"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="160"/>
     </row>
     <row r="16" spans="2:18" s="72" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="126"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="138"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="144"/>
       <c r="J16" s="70"/>
-      <c r="K16" s="125" t="s">
+      <c r="K16" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="129"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="141" t="s">
+      <c r="L16" s="155"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="133"/>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="135"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="141"/>
     </row>
     <row r="17" spans="2:18" s="72" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="70"/>
@@ -3273,14 +3277,14 @@
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="138"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="144"/>
     </row>
     <row r="18" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="69"/>
@@ -3302,27 +3306,27 @@
       <c r="R18" s="66"/>
     </row>
     <row r="19" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="148"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="135"/>
       <c r="J19" s="56"/>
-      <c r="K19" s="149" t="s">
+      <c r="K19" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="150"/>
-      <c r="R19" s="151"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="138"/>
     </row>
     <row r="20" spans="2:18" s="69" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="82"/>
@@ -3362,10 +3366,10 @@
       <c r="E21" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
       <c r="K21" s="57" t="s">
         <v>24</v>
       </c>
@@ -3376,100 +3380,100 @@
       <c r="N21" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="143"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="146"/>
     </row>
     <row r="22" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="146"/>
       <c r="K22" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="143"/>
-      <c r="M22" s="144"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="147"/>
       <c r="N22" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="146"/>
     </row>
     <row r="23" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="146"/>
       <c r="K23" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="143"/>
-      <c r="M23" s="144"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="147"/>
       <c r="N23" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="146"/>
     </row>
     <row r="24" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="123"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="149"/>
       <c r="E24" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="124"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="150"/>
       <c r="K24" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="146"/>
     </row>
     <row r="25" spans="2:18" s="46" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K25" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="122"/>
-      <c r="M25" s="123"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="149"/>
       <c r="N25" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="124"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="150"/>
     </row>
     <row r="26" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
@@ -3479,51 +3483,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="O16:R17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="L24:R24"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="O22:R22"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="O25:R25"/>
     <mergeCell ref="B15:B16"/>
@@ -3540,6 +3499,51 @@
     <mergeCell ref="O23:R23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="F24:I24"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="O16:R17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
